--- a/data_year/zb/文化/图书、期刊和报纸出版情况.xlsx
+++ b/data_year/zb/文化/图书、期刊和报纸出版情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,835 +498,463 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>143376</v>
+        <v>328387</v>
       </c>
       <c r="C2" t="n">
-        <v>376.2144</v>
+        <v>606.3317</v>
       </c>
       <c r="D2" t="n">
-        <v>62.7</v>
+        <v>71.7</v>
       </c>
       <c r="E2" t="n">
-        <v>84235</v>
+        <v>189295</v>
       </c>
       <c r="F2" t="n">
-        <v>799.83</v>
+        <v>2148.0284</v>
       </c>
       <c r="G2" t="n">
-        <v>329.3</v>
+        <v>452.1</v>
       </c>
       <c r="H2" t="n">
-        <v>2007</v>
+        <v>1939</v>
       </c>
       <c r="I2" t="n">
-        <v>17914</v>
+        <v>21437.68</v>
       </c>
       <c r="J2" t="n">
-        <v>100.04</v>
+        <v>181.05992143</v>
       </c>
       <c r="K2" t="n">
-        <v>29.4</v>
+        <v>32.2</v>
       </c>
       <c r="L2" t="n">
-        <v>8725</v>
+        <v>9884</v>
       </c>
       <c r="M2" t="n">
-        <v>21544</v>
+        <v>16348.5192</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>155000</v>
+        <v>369523</v>
       </c>
       <c r="C3" t="n">
-        <v>406.08276</v>
+        <v>634.51289</v>
       </c>
       <c r="D3" t="n">
-        <v>63.1</v>
+        <v>77</v>
       </c>
       <c r="E3" t="n">
-        <v>91416</v>
+        <v>207506</v>
       </c>
       <c r="F3" t="n">
-        <v>938.9</v>
+        <v>2272</v>
       </c>
       <c r="G3" t="n">
-        <v>351.1</v>
+        <v>467.4</v>
       </c>
       <c r="H3" t="n">
-        <v>2111</v>
+        <v>1928</v>
       </c>
       <c r="I3" t="n">
-        <v>18130</v>
+        <v>21517</v>
       </c>
       <c r="J3" t="n">
-        <v>100.9</v>
+        <v>192.7287671</v>
       </c>
       <c r="K3" t="n">
-        <v>28.9</v>
+        <v>32.9</v>
       </c>
       <c r="L3" t="n">
-        <v>8889</v>
+        <v>9849</v>
       </c>
       <c r="M3" t="n">
-        <v>20697</v>
+        <v>16880.0343</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171000</v>
+        <v>414005</v>
       </c>
       <c r="C4" t="n">
-        <v>456.44889</v>
+        <v>666.99442</v>
       </c>
       <c r="D4" t="n">
-        <v>68.7</v>
+        <v>79.2</v>
       </c>
       <c r="E4" t="n">
-        <v>100693</v>
+        <v>241986</v>
       </c>
       <c r="F4" t="n">
-        <v>1067.4</v>
+        <v>2211.00305</v>
       </c>
       <c r="G4" t="n">
-        <v>367.83</v>
+        <v>482.3</v>
       </c>
       <c r="H4" t="n">
-        <v>2137</v>
+        <v>1918</v>
       </c>
       <c r="I4" t="n">
-        <v>18721.12</v>
+        <v>22762</v>
       </c>
       <c r="J4" t="n">
-        <v>106.4</v>
+        <v>196</v>
       </c>
       <c r="K4" t="n">
-        <v>29.51</v>
+        <v>33.5</v>
       </c>
       <c r="L4" t="n">
-        <v>9029</v>
+        <v>9867</v>
       </c>
       <c r="M4" t="n">
-        <v>20406</v>
+        <v>16767</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>190000</v>
+        <v>444427</v>
       </c>
       <c r="C5" t="n">
-        <v>462.22401</v>
+        <v>712.58143</v>
       </c>
       <c r="D5" t="n">
-        <v>66.7</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>110812</v>
+        <v>255981</v>
       </c>
       <c r="F5" t="n">
-        <v>1235.6</v>
+        <v>2097.8409</v>
       </c>
       <c r="G5" t="n">
-        <v>383.11</v>
+        <v>482.4</v>
       </c>
       <c r="H5" t="n">
-        <v>2119</v>
+        <v>1915</v>
       </c>
       <c r="I5" t="n">
-        <v>19072</v>
+        <v>23695.77</v>
       </c>
       <c r="J5" t="n">
-        <v>109.1</v>
+        <v>194.6951827</v>
       </c>
       <c r="K5" t="n">
-        <v>29.5</v>
+        <v>32.7</v>
       </c>
       <c r="L5" t="n">
-        <v>9074</v>
+        <v>9877</v>
       </c>
       <c r="M5" t="n">
-        <v>19909</v>
+        <v>16453.4644</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>208000</v>
-      </c>
-      <c r="C6" t="n">
-        <v>465.58511</v>
-      </c>
+        <v>448431</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>64.09999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="E6" t="n">
-        <v>121597</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1524.8</v>
-      </c>
+        <v>255890</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>402.4</v>
+        <v>463.9</v>
       </c>
       <c r="H6" t="n">
-        <v>1922</v>
-      </c>
-      <c r="I6" t="n">
-        <v>19522</v>
-      </c>
-      <c r="J6" t="n">
-        <v>110.5</v>
-      </c>
+        <v>1912</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>28.3</v>
+        <v>30.9</v>
       </c>
       <c r="L6" t="n">
-        <v>9490</v>
-      </c>
-      <c r="M6" t="n">
-        <v>17208</v>
-      </c>
+        <v>9966</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222473</v>
-      </c>
-      <c r="C7" t="n">
-        <v>493.29119</v>
-      </c>
+        <v>475768</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>64.7</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>128578</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1613.1</v>
-      </c>
+        <v>260426</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>412.6</v>
+        <v>430.1</v>
       </c>
       <c r="H7" t="n">
-        <v>1931</v>
-      </c>
-      <c r="I7" t="n">
-        <v>19549</v>
-      </c>
-      <c r="J7" t="n">
-        <v>125.3</v>
-      </c>
+        <v>1906</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>27.6</v>
+        <v>28.8</v>
       </c>
       <c r="L7" t="n">
-        <v>9468</v>
-      </c>
-      <c r="M7" t="n">
-        <v>16286</v>
-      </c>
+        <v>10014</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>233971</v>
-      </c>
-      <c r="C8" t="n">
-        <v>511.95776</v>
-      </c>
+        <v>499884</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>64.09999999999999</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>160757</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1658.9</v>
-      </c>
+        <v>262415</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>424.5</v>
+        <v>390.1</v>
       </c>
       <c r="H8" t="n">
-        <v>1938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>19703</v>
-      </c>
-      <c r="J8" t="n">
-        <v>136.9</v>
-      </c>
+        <v>1894</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>28.5</v>
+        <v>27</v>
       </c>
       <c r="L8" t="n">
-        <v>9468</v>
-      </c>
-      <c r="M8" t="n">
-        <v>16435</v>
-      </c>
+        <v>10084</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>248283</v>
-      </c>
-      <c r="C9" t="n">
-        <v>486.50689</v>
-      </c>
+        <v>512487</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>62.9</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>136226</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1700.76144</v>
-      </c>
+        <v>255106</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>438</v>
+        <v>362.5</v>
       </c>
       <c r="H9" t="n">
-        <v>1938</v>
-      </c>
-      <c r="I9" t="n">
-        <v>20545.37</v>
-      </c>
-      <c r="J9" t="n">
-        <v>157.93057</v>
-      </c>
+        <v>1884</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>30.4</v>
+        <v>24.9</v>
       </c>
       <c r="L9" t="n">
-        <v>9468</v>
-      </c>
-      <c r="M9" t="n">
-        <v>16697</v>
-      </c>
+        <v>10130</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>274123</v>
-      </c>
-      <c r="C10" t="n">
-        <v>561.1</v>
-      </c>
+        <v>519250</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>70.59999999999999</v>
+        <v>100.1</v>
       </c>
       <c r="E10" t="n">
-        <v>148978</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1930.55001</v>
-      </c>
+        <v>247108</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>442.9</v>
+        <v>337.3</v>
       </c>
       <c r="H10" t="n">
-        <v>1943</v>
-      </c>
-      <c r="I10" t="n">
-        <v>21154.79</v>
-      </c>
-      <c r="J10" t="n">
-        <v>157.98297</v>
-      </c>
+        <v>1871</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>31</v>
+        <v>22.9</v>
       </c>
       <c r="L10" t="n">
-        <v>9549</v>
-      </c>
-      <c r="M10" t="n">
-        <v>16767</v>
-      </c>
+        <v>10139</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>301719</v>
-      </c>
-      <c r="C11" t="n">
-        <v>565.50271</v>
-      </c>
+        <v>505979</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>70.40000000000001</v>
+        <v>105.9756</v>
       </c>
       <c r="E11" t="n">
-        <v>168296</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1969.39842</v>
-      </c>
+        <v>224762</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>439.1</v>
+        <v>317.6</v>
       </c>
       <c r="H11" t="n">
-        <v>1937</v>
-      </c>
-      <c r="I11" t="n">
-        <v>20837.15</v>
-      </c>
-      <c r="J11" t="n">
-        <v>166.24089</v>
-      </c>
+        <v>1851</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>31.5</v>
+        <v>21.9</v>
       </c>
       <c r="L11" t="n">
-        <v>9851</v>
-      </c>
-      <c r="M11" t="n">
-        <v>16457</v>
-      </c>
+        <v>10171</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>328387</v>
-      </c>
-      <c r="C12" t="n">
-        <v>606.3317</v>
-      </c>
+        <v>489051</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>71.7</v>
+        <v>103.7305</v>
       </c>
       <c r="E12" t="n">
-        <v>189295</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2148.0284</v>
-      </c>
+        <v>213636</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>452.1</v>
+        <v>289.136253</v>
       </c>
       <c r="H12" t="n">
-        <v>1939</v>
-      </c>
-      <c r="I12" t="n">
-        <v>21437.68</v>
-      </c>
-      <c r="J12" t="n">
-        <v>181.05992143</v>
-      </c>
+        <v>1810</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>32.2</v>
+        <v>20.35235</v>
       </c>
       <c r="L12" t="n">
-        <v>9884</v>
-      </c>
-      <c r="M12" t="n">
-        <v>16348.5192</v>
-      </c>
+        <v>10192</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>369523</v>
-      </c>
-      <c r="C13" t="n">
-        <v>634.51289</v>
-      </c>
+        <v>529197</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>77</v>
+        <v>118.6381</v>
       </c>
       <c r="E13" t="n">
-        <v>207506</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2272</v>
-      </c>
+        <v>225253</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>467.4</v>
+        <v>283.020063</v>
       </c>
       <c r="H13" t="n">
-        <v>1928</v>
-      </c>
-      <c r="I13" t="n">
-        <v>21517</v>
-      </c>
-      <c r="J13" t="n">
-        <v>192.7287671</v>
-      </c>
+        <v>1752</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>32.9</v>
+        <v>20.090665</v>
       </c>
       <c r="L13" t="n">
-        <v>9849</v>
-      </c>
-      <c r="M13" t="n">
-        <v>16880.0343</v>
-      </c>
+        <v>10185</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>414005</v>
-      </c>
-      <c r="C14" t="n">
-        <v>666.99442</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>79.2</v>
-      </c>
-      <c r="E14" t="n">
-        <v>241986</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2211.00305</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
-        <v>482.3</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1918</v>
-      </c>
-      <c r="I14" t="n">
-        <v>22762</v>
-      </c>
-      <c r="J14" t="n">
-        <v>196</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="L14" t="n">
-        <v>9867</v>
-      </c>
-      <c r="M14" t="n">
-        <v>16767</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>444427</v>
-      </c>
-      <c r="C15" t="n">
-        <v>712.58143</v>
-      </c>
-      <c r="D15" t="n">
-        <v>83.09999999999999</v>
-      </c>
-      <c r="E15" t="n">
-        <v>255981</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2097.8409</v>
-      </c>
-      <c r="G15" t="n">
-        <v>482.4</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1915</v>
-      </c>
-      <c r="I15" t="n">
-        <v>23695.77</v>
-      </c>
-      <c r="J15" t="n">
-        <v>194.6951827</v>
-      </c>
-      <c r="K15" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="L15" t="n">
-        <v>9877</v>
-      </c>
-      <c r="M15" t="n">
-        <v>16453.4644</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>448431</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="n">
-        <v>81.8</v>
-      </c>
-      <c r="E16" t="n">
-        <v>255890</v>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="n">
-        <v>463.9</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1912</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L16" t="n">
-        <v>9966</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>475768</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="n">
-        <v>86.59999999999999</v>
-      </c>
-      <c r="E17" t="n">
-        <v>260426</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="n">
-        <v>430.1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1906</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L17" t="n">
-        <v>10014</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>499884</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="E18" t="n">
-        <v>262415</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="n">
-        <v>390.1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1894</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>27</v>
-      </c>
-      <c r="L18" t="n">
-        <v>10084</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>512487</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="n">
-        <v>92.40000000000001</v>
-      </c>
-      <c r="E19" t="n">
-        <v>255106</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="n">
-        <v>362.5</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1884</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="L19" t="n">
-        <v>10130</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>519250</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>247108</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="n">
-        <v>337.3</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1871</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L20" t="n">
-        <v>10139</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>505979</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="n">
-        <v>105.9756</v>
-      </c>
-      <c r="E21" t="n">
-        <v>224762</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="n">
-        <v>317.6</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1851</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="L21" t="n">
-        <v>10171</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>489051</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="n">
-        <v>103.7305</v>
-      </c>
-      <c r="E22" t="n">
-        <v>213636</v>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="n">
-        <v>289.136253</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1810</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>20.35235</v>
-      </c>
-      <c r="L22" t="n">
-        <v>10192</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
